--- a/data/FullDietCodes.xlsx
+++ b/data/FullDietCodes.xlsx
@@ -1,15 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{650529BC-D662-4017-908C-E4F2D7BC05FF}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2701EC0A-2953-4FE7-ACBA-7CDA09E5A823}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="10215" windowHeight="5430" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="intermediate" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$E$1:$F$57</definedName>
@@ -24,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="66">
   <si>
     <t>6026-1</t>
   </si>
@@ -1743,243 +1742,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2B2BC0A-031F-4BCD-8D6E-4FBF21672197}">
-  <dimension ref="A1:B28"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15:B28"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="1">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B2" s="1">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B3" s="1">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="1">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B5" s="1">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B6" s="1">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B8" s="1">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="1">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10" s="1">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B11" s="1">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" s="1">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B13" s="1">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B14" s="1">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B15" s="1">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B16" s="1">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17" s="1">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B18" s="1">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B19" s="1">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B20" s="1">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B21" s="1">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B22" s="1">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B23" s="1">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B24" s="1">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B25" s="1">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B26" s="1">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B27" s="1">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B28" s="1">
-        <v>102</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>